--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643980.496335885</v>
+        <v>682210.3688256094</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.067254427</v>
+        <v>8088944.869226756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9511853.175357049</v>
+        <v>8551844.016552845</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>276.4896811987724</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554016</v>
+        <v>0.02307145248658162</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.95866062611013</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.4875868554723</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>68.45099403238699</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657087</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>15.40229248514468</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.62154955555377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>289.0908630279717</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>153.9123329695653</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>191.2206015309412</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.95866062611016</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>220.013305673653</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>118.2873351493185</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.65376085597421</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.52918235370597</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.46084344268542</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>236.7683654150492</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>42.78734947750964</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>55.52407087367887</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>72.0880274467722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>83.56741318567379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>242.6596397053877</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247742</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>131.7713477949377</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>115.0138334144183</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>23.74571998352008</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>284.2107252004965</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>20.95866062610961</v>
+        <v>48.34481037435867</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>391.9701190518365</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.22252973232855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
       <c r="T25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>108.3647338105601</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>242.6334155076087</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.34481037435884</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>105.0023863360944</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>149.5557387055051</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>113.1061620820462</v>
+        <v>15.38185492767357</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3158,7 +3158,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>146.337102947278</v>
+        <v>149.1816830357531</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>77.42639794035586</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>20.37870693812113</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>115.0138334144182</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>89.48046147214224</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>79.03187764303425</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>48.84290098771179</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>267.4531314860496</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>27.74005013826169</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>265.5827812453846</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>131.6288405191004</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951709</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>131.552212841269</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838976</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.848573898564</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D2" t="n">
-        <v>731.5828752918139</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E2" t="n">
-        <v>345.7946226935697</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F2" t="n">
-        <v>345.7946226935697</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>345.7946226935697</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410104</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139989</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.55026287891</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903098</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>30.55991817042172</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>631.784138943829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379422</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>87.68248070098156</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218345</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.638712032432</v>
+        <v>520.580321167866</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.638712032432</v>
+        <v>520.580321167866</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.373013425682</v>
+        <v>520.580321167866</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>520.580321167866</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>21.03371160678499</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>80.81213159058954</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>649.4845259985588</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>520.580321167866</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>520.580321167866</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>520.580321167866</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008244</v>
+        <v>520.580321167866</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032432</v>
+        <v>520.580321167866</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>598.8192732198762</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>30.55991817042144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877115</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877115</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V7" t="n">
-        <v>444.4359021818246</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.018732144864</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>896.6190783980858</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549923</v>
+        <v>896.6190783980858</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482417</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="E8" t="n">
-        <v>400.5199879482417</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F8" t="n">
-        <v>400.5199879482417</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>400.5199879482417</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2012.992823905091</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2012.992823905091</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>1660.224168634977</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1286.758410373898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>896.6190783980858</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>525.9940904859268</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1573.07492457496</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1344.973334708224</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>631.784138943829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379422</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W10" t="n">
-        <v>87.68248070098156</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X10" t="n">
-        <v>87.68248070098156</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y10" t="n">
-        <v>87.68248070098156</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.040104645723</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C11" t="n">
-        <v>1952.040104645723</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D11" t="n">
-        <v>1593.774406038973</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1207.986153440728</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>797.000248651121</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>381.9277984961174</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>84.34419810488464</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906803</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645723</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645723</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>531.1582437467479</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>381.0416043344121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>233.128510752019</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>86.23856325410864</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>86.23856325410864</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5208,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1758.295537883725</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>1519.135572818019</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.869874211268</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>775.0816216130238</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5311,19 +5311,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923658</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.034709923658</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y14" t="n">
-        <v>2144.895377947847</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181845</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="C16" t="n">
-        <v>751.9508228902777</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779419</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955488</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>307.0311423976384</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>139.3283057723574</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181845</v>
+        <v>438.2129667142807</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1190.127582679363</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C17" t="n">
-        <v>821.1650657389509</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D17" t="n">
-        <v>821.1650657389509</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2340.332512980376</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>1966.866754719296</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>1576.727422743484</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U19" t="n">
-        <v>804.7114165106916</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V19" t="n">
-        <v>804.7114165106916</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2942464737309</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X19" t="n">
-        <v>287.3046955757135</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2029.57251526313</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1660.609998322719</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.344299715968</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>916.5560471177239</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>505.5701423281163</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>90.4976921731128</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>90.4976921731128</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5785,19 +5785,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.03827352421</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>2029.57251526313</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2029.57251526313</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T22" t="n">
-        <v>899.7166415493873</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="U22" t="n">
-        <v>610.6137746750309</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="V22" t="n">
-        <v>355.929286469144</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W22" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2303.170539913434</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>873.4274344054643</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>462.4415296158567</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
         <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269321</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2303.170539913434</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="T25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y25" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1892.184635123826</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.222118183415</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3216.146494527797</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3216.146494527797</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2962.616017801633</v>
+        <v>3080.521563520676</v>
       </c>
       <c r="V26" t="n">
-        <v>2631.553130458062</v>
+        <v>2749.458676177105</v>
       </c>
       <c r="W26" t="n">
-        <v>2278.784475187948</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X26" t="n">
-        <v>2278.784475187948</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y26" t="n">
-        <v>2278.784475187948</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2649387171043</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1482993047686</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>262.2352057223754</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>115.3452582244651</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1285.591601078695</v>
+        <v>1160.843385122603</v>
       </c>
       <c r="C29" t="n">
-        <v>916.6290841382836</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="D29" t="n">
-        <v>558.3633855315331</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E29" t="n">
-        <v>172.5751329332889</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F29" t="n">
-        <v>172.5751329332889</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>172.5751329332889</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379709</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118629</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142817</v>
+        <v>1547.443225186725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
         <v>765.151745215813</v>
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379417</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W31" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X31" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.04733549168</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.084818551268</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D32" t="n">
-        <v>1006.819119944518</v>
+        <v>950.104597336996</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218339</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792693</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792693</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531614</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555802</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="33">
@@ -6800,10 +6800,10 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
         <v>2435.471302619336</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="C34" t="n">
-        <v>507.434506214537</v>
+        <v>662.1203656478056</v>
       </c>
       <c r="D34" t="n">
-        <v>507.434506214537</v>
+        <v>512.0037262354698</v>
       </c>
       <c r="E34" t="n">
-        <v>507.434506214537</v>
+        <v>364.0906326530767</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5445587166266</v>
+        <v>217.2006851551663</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218339</v>
@@ -6882,28 +6882,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S34" t="n">
-        <v>729.201121645011</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="W34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="X34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.434506214537</v>
+        <v>831.0565485757124</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2065.110222835251</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.147705894839</v>
+        <v>883.8708262827838</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>883.8708262827838</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>498.0825736845396</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>87.09666889493201</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>87.09666889493201</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>87.09666889493201</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6952,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W35" t="n">
-        <v>3215.315153136264</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>2841.849394875184</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2451.710062899373</v>
+        <v>1639.433183287317</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218339</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218339</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F37" t="n">
         <v>66.51211643218339</v>
@@ -7131,16 +7131,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>804.7114165106914</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>515.2942464737308</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X37" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.51211643218339</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565137</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624725</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179749</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197306</v>
+        <v>198.8933197100301</v>
       </c>
       <c r="F38" t="n">
-        <v>188.339194630123</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>188.339194630123</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7174,10 +7174,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.54649786615</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.08073960507</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.941407629259</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.7614736385278</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C40" t="n">
-        <v>263.7614736385278</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218339</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181845</v>
+        <v>650.7323275494475</v>
       </c>
       <c r="V40" t="n">
-        <v>666.2025176122977</v>
+        <v>650.7323275494475</v>
       </c>
       <c r="W40" t="n">
-        <v>666.2025176122977</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="X40" t="n">
-        <v>666.2025176122977</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y40" t="n">
-        <v>445.4099384687676</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="41">
@@ -7441,13 +7441,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W41" t="n">
         <v>3155.791869823214</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.1808689801002</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7596,25 +7596,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>729.201121645011</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V43" t="n">
-        <v>701.1808689801002</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W43" t="n">
-        <v>701.1808689801002</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="X43" t="n">
-        <v>701.1808689801002</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.1808689801002</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
         <v>1678.62132134232</v>
@@ -7654,10 +7654,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>385.5649387724261</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C46" t="n">
-        <v>216.6287558445192</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218342</v>
@@ -7833,25 +7833,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>788.005982746196</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>788.005982746196</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>788.005982746196</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>788.005982746196</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>788.005982746196</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>788.005982746196</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y46" t="n">
-        <v>567.2134036026658</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>18.1180831885481</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6220090029144</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,31 +22746,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>204.750994762927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22789,19 +22789,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>53.44278321678945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>182.7182665326433</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.43946486559503</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>8.730870854284319</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>234.3070520821565</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.516901359348708</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>97.15875972455052</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.542616779822538</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.8733195558272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>66.50969266293802</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>236.3957064713644</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>23.92316891695174</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>125.2258325606148</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,19 +23472,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>128.5045263559583</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>343.450589178544</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>93.09140214453348</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.66698746754858</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23712,13 +23712,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>265.6735555317392</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>143.5782989506659</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>48.0606323869996</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>171.1980047911945</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>17.83120978940587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>102.027213455557</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.5902886500596</v>
+        <v>171.2041389018105</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>18.9516066016169</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>302.015408923725</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>131.4871698075787</v>
       </c>
       <c r="T25" t="n">
-        <v>147.4609218293966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8230279776156948</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.361756451293246</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6809978846694</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>16.8441252232751</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>189.6053780512261</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>236.6821999505485</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>158.8733195558276</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>145.067147632919</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>268.8242079902156</v>
+        <v>366.5485151445882</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.68870531175025</v>
+        <v>16.84412522327511</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>277.2566436803271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>21.19822283480485</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25371,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>137.1238099094098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>317.3955842695692</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>215.5758867442862</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>99.77257203050056</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>18.75870671956324</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>35.80215787152343</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>224.3975931855663</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>20.94021709120636</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>196.1234179510345</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222421</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>124.4623873968217</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>58.21681249017288</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822602.443421874</v>
+        <v>416599.1113786229</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.4434218741</v>
+        <v>416599.1113786226</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.4434218738</v>
+        <v>645633.2065222072</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329040.9773687493</v>
+        <v>166639.6445514491</v>
       </c>
       <c r="C2" t="n">
-        <v>329040.9773687493</v>
+        <v>166639.644551449</v>
       </c>
       <c r="D2" t="n">
+        <v>258253.2826088826</v>
+      </c>
+      <c r="E2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="E2" t="n">
-        <v>329040.9773687493</v>
-      </c>
       <c r="F2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="G2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="H2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="I2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="J2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="K2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="L2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="M2" t="n">
         <v>329040.9773687493</v>
@@ -26355,7 +26355,7 @@
         <v>329040.9773687493</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687492</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487659</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.3781312702</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061234</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061234</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="L4" t="n">
         <v>584.646989006123</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26490,13 +26490,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112296.351287413</v>
+        <v>-483060.2647009857</v>
       </c>
       <c r="C6" t="n">
-        <v>216448.3944401802</v>
+        <v>108296.6378198596</v>
       </c>
       <c r="D6" t="n">
-        <v>216448.3944401802</v>
+        <v>-199649.9841326187</v>
       </c>
       <c r="E6" t="n">
-        <v>250075.9944401804</v>
+        <v>-22288.15548637731</v>
       </c>
       <c r="F6" t="n">
-        <v>250075.9944401804</v>
+        <v>253742.5902805328</v>
       </c>
       <c r="G6" t="n">
-        <v>250075.9944401801</v>
+        <v>253742.5902805327</v>
       </c>
       <c r="H6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.590280533</v>
       </c>
       <c r="I6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805329</v>
       </c>
       <c r="J6" t="n">
-        <v>32544.7920429025</v>
+        <v>204677.6455519884</v>
       </c>
       <c r="K6" t="n">
-        <v>250075.9944401801</v>
+        <v>253742.5902805328</v>
       </c>
       <c r="L6" t="n">
-        <v>250075.9944401804</v>
+        <v>163999.2121492625</v>
       </c>
       <c r="M6" t="n">
-        <v>250075.9944401803</v>
+        <v>181651.2376644467</v>
       </c>
       <c r="N6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.590280533</v>
       </c>
       <c r="O6" t="n">
-        <v>250075.9944401803</v>
+        <v>253742.5902805329</v>
       </c>
       <c r="P6" t="n">
-        <v>250075.99444018</v>
+        <v>253742.5902805326</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761298</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598429</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761298</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761298</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32241,7 +32241,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623188</v>
       </c>
       <c r="M17" t="n">
         <v>769.2673490574995</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O28" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
